--- a/xlsx/878.xlsx
+++ b/xlsx/878.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-11520" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="878" sheetId="4" r:id="rId1"/>
